--- a/data/trans_orig/P44A$analisis-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44A$analisis-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>18945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11763</v>
+        <v>12545</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26672</v>
+        <v>27032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.420476107793154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2610769039990843</v>
+        <v>0.2784277970608445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5919568017127711</v>
+        <v>0.599960708230159</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -764,19 +764,19 @@
         <v>18668</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12192</v>
+        <v>11927</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26561</v>
+        <v>26237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2967296340878786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1937892063804066</v>
+        <v>0.1895828055615559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.422199324761329</v>
+        <v>0.4170494926361102</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -785,19 +785,19 @@
         <v>37613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28039</v>
+        <v>27038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49102</v>
+        <v>47188</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3483709218975987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2596980398156407</v>
+        <v>0.2504235067698077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.454784121161331</v>
+        <v>0.4370527148976288</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>28113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21120</v>
+        <v>20649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34572</v>
+        <v>34194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6239340412990487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4687347856133007</v>
+        <v>0.458276032757101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7672836956110185</v>
+        <v>0.7589087028801675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -835,19 +835,19 @@
         <v>42197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33871</v>
+        <v>33921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49329</v>
+        <v>49274</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6707315994148527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5383934486568943</v>
+        <v>0.5391786157205312</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7840882183846579</v>
+        <v>0.7832263884786392</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -856,19 +856,19 @@
         <v>70309</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59081</v>
+        <v>59567</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79634</v>
+        <v>79567</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.65120226580971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5472111660716509</v>
+        <v>0.5517095057600404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7375695481730301</v>
+        <v>0.7369477247590097</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>5269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2058</v>
+        <v>2021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11972</v>
+        <v>10693</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.116943946705464</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04567090899926604</v>
+        <v>0.04484452529964295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2656971866999318</v>
+        <v>0.237327880232569</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>20656</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13551</v>
+        <v>13332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28685</v>
+        <v>28492</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3283320978077128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2153928183213609</v>
+        <v>0.211908912766905</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4559466068586928</v>
+        <v>0.4528818383658262</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -927,19 +927,19 @@
         <v>25925</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18145</v>
+        <v>17127</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36554</v>
+        <v>35481</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2401166034685762</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1680591660139306</v>
+        <v>0.1586273929713109</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3385627056354829</v>
+        <v>0.3286273757734373</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>7138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3009</v>
+        <v>2937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12651</v>
+        <v>12600</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1584134748544826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06677504969421807</v>
+        <v>0.06519428861663057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2807712248026947</v>
+        <v>0.2796421744317977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -977,19 +977,19 @@
         <v>6165</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2888</v>
+        <v>2859</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12520</v>
+        <v>12104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09799972369071398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04590338134229266</v>
+        <v>0.04545171265451883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1990082424134669</v>
+        <v>0.1923950679639345</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -998,19 +998,19 @@
         <v>13303</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7281</v>
+        <v>7272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21016</v>
+        <v>20511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1232113019934902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06743376764097007</v>
+        <v>0.06735054426633857</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1946546354691745</v>
+        <v>0.1899759477807259</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>16885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10366</v>
+        <v>9866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24482</v>
+        <v>24465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3394203064341738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2083820399896301</v>
+        <v>0.1983259514152338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4921213303523994</v>
+        <v>0.4917930899255919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1052,19 +1052,19 @@
         <v>10521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5558</v>
+        <v>5195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16912</v>
+        <v>16903</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3456176689372616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.182591208281312</v>
+        <v>0.1706611245222244</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5555385961348983</v>
+        <v>0.5552549019087069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1073,19 +1073,19 @@
         <v>27406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18265</v>
+        <v>18778</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36502</v>
+        <v>36834</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3417729997503465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2277737223978295</v>
+        <v>0.2341696277732156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4552066485361092</v>
+        <v>0.459340978735293</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>29592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21511</v>
+        <v>21933</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37533</v>
+        <v>36839</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5948534716589634</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.432404017389957</v>
+        <v>0.4409008258854986</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7544700186030382</v>
+        <v>0.7405307901560476</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1123,19 +1123,19 @@
         <v>16528</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10423</v>
+        <v>10540</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22053</v>
+        <v>22768</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.542930812306743</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3423884873885805</v>
+        <v>0.3462428204025484</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7244376078907687</v>
+        <v>0.7478994868486077</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>39</v>
@@ -1144,19 +1144,19 @@
         <v>46120</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>36015</v>
+        <v>35178</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55153</v>
+        <v>54960</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5751421680915162</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4491345854974378</v>
+        <v>0.438699458514912</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6877972330285568</v>
+        <v>0.6853854255461267</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>12623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7224</v>
+        <v>6661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20402</v>
+        <v>20293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2537506262933212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1452118430302538</v>
+        <v>0.133896143149717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4101232882550339</v>
+        <v>0.4079165021611957</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>11804</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6397</v>
+        <v>6698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17646</v>
+        <v>17826</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3877395516349005</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2101275118842005</v>
+        <v>0.2200206540661024</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5796483362550174</v>
+        <v>0.5855778939592249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1215,19 +1215,19 @@
         <v>24427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16592</v>
+        <v>16139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34806</v>
+        <v>33624</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3046165953140498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2069142429735746</v>
+        <v>0.2012642455648911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4340569524442399</v>
+        <v>0.4193202186088301</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>9402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4156</v>
+        <v>4964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15964</v>
+        <v>17339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1890044712994003</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08355010271353593</v>
+        <v>0.09978404497841749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3208985593889963</v>
+        <v>0.3485348293169691</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6673</v>
+        <v>6916</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06601475887144062</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.219215733124328</v>
+        <v>0.2271753990201068</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1286,19 +1286,19 @@
         <v>11412</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5876</v>
+        <v>6042</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19078</v>
+        <v>19582</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1423141132248023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.073276770500405</v>
+        <v>0.07534424914424789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2379182732782319</v>
+        <v>0.2442063637930598</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>5240</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9749</v>
+        <v>9536</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3598367380851172</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1290300076140948</v>
+        <v>0.1289587661596637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6694321136775286</v>
+        <v>0.6548077477334034</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1340,19 +1340,19 @@
         <v>4583</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1870</v>
+        <v>1126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8397</v>
+        <v>8780</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3669238655414744</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1497008937266061</v>
+        <v>0.0901652372244849</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6723521004870797</v>
+        <v>0.7030006389456842</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1361,19 +1361,19 @@
         <v>9823</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4690</v>
+        <v>4918</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15284</v>
+        <v>15630</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3631087021261225</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1733669598938461</v>
+        <v>0.1817887349887145</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5649737245571854</v>
+        <v>0.5777877441521884</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>9386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5145</v>
+        <v>5110</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12803</v>
+        <v>12705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.644520809630892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3532789321346945</v>
+        <v>0.3509211446328147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8791189871108666</v>
+        <v>0.8724386192176037</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1411,19 +1411,19 @@
         <v>6295</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2922</v>
+        <v>2040</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10061</v>
+        <v>10043</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5040779789498343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2340058896641282</v>
+        <v>0.1633261670624754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8055899363680872</v>
+        <v>0.804166811913393</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1432,19 +1432,19 @@
         <v>15682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10062</v>
+        <v>9577</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21214</v>
+        <v>20993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5796815789785336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3719452969939028</v>
+        <v>0.3540402685151351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7841920092018233</v>
+        <v>0.7760109740739134</v>
       </c>
     </row>
     <row r="14">
@@ -1474,19 +1474,19 @@
         <v>4824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1608</v>
+        <v>1684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9141</v>
+        <v>9114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3862231396612898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1287892738267628</v>
+        <v>0.1348544413837408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7319427261034972</v>
+        <v>0.7297390323345987</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1495,19 +1495,19 @@
         <v>4824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1205</v>
+        <v>1152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10751</v>
+        <v>10843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1783103567076851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04454790983190905</v>
+        <v>0.04257381505197382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3974331951309389</v>
+        <v>0.4008236571629676</v>
       </c>
     </row>
     <row r="15">
@@ -1524,19 +1524,19 @@
         <v>3107</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>755</v>
+        <v>912</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7642</v>
+        <v>7331</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2133623346429184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05184903598997932</v>
+        <v>0.06261273692588917</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5247742970814776</v>
+        <v>0.5033853909437193</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5956</v>
+        <v>4264</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07820791810222452</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4769396742632534</v>
+        <v>0.3413867254325877</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1566,19 +1566,19 @@
         <v>4084</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1008</v>
+        <v>963</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9067</v>
+        <v>8999</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1509646433882595</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03725392773045046</v>
+        <v>0.03559403234612246</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3351524573926034</v>
+        <v>0.3326479712114697</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>41070</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3755323822530451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1620,19 +1620,19 @@
         <v>33772</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24096</v>
+        <v>24248</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43848</v>
+        <v>44671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3190733615712941</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2276574923104527</v>
+        <v>0.2290914281876526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4142694525983193</v>
+        <v>0.4220462882813167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -1641,19 +1641,19 @@
         <v>74842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59865</v>
+        <v>60860</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89663</v>
+        <v>91967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3477650671867666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2781727509534949</v>
+        <v>0.282797018679693</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4166335140411277</v>
+        <v>0.4273370598513966</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>67090</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6134476704769855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -1691,19 +1691,19 @@
         <v>65020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53801</v>
+        <v>53899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75558</v>
+        <v>74777</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6143093688263023</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5083127949367454</v>
+        <v>0.5092307687151071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7138688800122209</v>
+        <v>0.7064903035186734</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -1712,19 +1712,19 @@
         <v>132111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117557</v>
+        <v>116691</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>146894</v>
+        <v>149190</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6138714654572853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5462478907529397</v>
+        <v>0.542219612363236</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6825637877820925</v>
+        <v>0.6932352488956748</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>17892</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1636001922329219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -1762,19 +1762,19 @@
         <v>37283</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27903</v>
+        <v>27733</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48144</v>
+        <v>47908</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3522495715535244</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2636282701684726</v>
+        <v>0.2620178555283114</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4548598496540847</v>
+        <v>0.4526314725179359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -1783,19 +1783,19 @@
         <v>55175</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41357</v>
+        <v>40908</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67781</v>
+        <v>69428</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2563805254622264</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1921707843080145</v>
+        <v>0.1900870152367287</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3149529455874599</v>
+        <v>0.3226075801169092</v>
       </c>
     </row>
     <row r="19">
@@ -1812,19 +1812,19 @@
         <v>19647</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1796449615522855</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1833,19 +1833,19 @@
         <v>9152</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4845</v>
+        <v>4039</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16340</v>
+        <v>15696</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08646500976955068</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04577609607322358</v>
+        <v>0.03815979514484624</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1543769296344139</v>
+        <v>0.1482910786530361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -1854,19 +1854,19 @@
         <v>28799</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19585</v>
+        <v>20079</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41849</v>
+        <v>39942</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1338177926115367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09100446100230589</v>
+        <v>0.0933016827162613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1944591634206423</v>
+        <v>0.1855942770412549</v>
       </c>
     </row>
     <row r="20">
@@ -2126,19 +2126,19 @@
         <v>16608</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10800</v>
+        <v>11096</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23239</v>
+        <v>23712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3211467963165427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2088247024365498</v>
+        <v>0.2145518433603893</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4493641321346984</v>
+        <v>0.4585122161386827</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2147,19 +2147,19 @@
         <v>24382</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16786</v>
+        <v>17117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32748</v>
+        <v>33701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3925379765096094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2702518080981395</v>
+        <v>0.2755681046136319</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5272257031428758</v>
+        <v>0.5425646869573573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2168,19 +2168,19 @@
         <v>40991</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31682</v>
+        <v>31227</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53004</v>
+        <v>51618</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3601028925051789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2783237611666489</v>
+        <v>0.2743309437038073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4656437056522329</v>
+        <v>0.4534690166158853</v>
       </c>
     </row>
     <row r="5">
@@ -2197,19 +2197,19 @@
         <v>30336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23173</v>
+        <v>22855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37390</v>
+        <v>36493</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5865857060614587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4480794395162462</v>
+        <v>0.4419241513035192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.722994479643245</v>
+        <v>0.7056498898052324</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -2218,19 +2218,19 @@
         <v>34559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25977</v>
+        <v>25886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42853</v>
+        <v>42654</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.55637462494898</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4182095692022105</v>
+        <v>0.4167496602497646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6899130241216923</v>
+        <v>0.6867101276335652</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -2239,19 +2239,19 @@
         <v>64895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54749</v>
+        <v>53834</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76018</v>
+        <v>75831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5701003954306827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4809690799299419</v>
+        <v>0.4729349837569008</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6678172670139589</v>
+        <v>0.6661812351104431</v>
       </c>
     </row>
     <row r="6">
@@ -2268,19 +2268,19 @@
         <v>11522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6342</v>
+        <v>6105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18056</v>
+        <v>17760</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2227856759331563</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1226385034751711</v>
+        <v>0.1180577563454953</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3491419900793813</v>
+        <v>0.3434229332616048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -2289,19 +2289,19 @@
         <v>11295</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5677</v>
+        <v>5977</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20025</v>
+        <v>19150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1818498847248508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09140024036343836</v>
+        <v>0.09623201065110322</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3223882333697836</v>
+        <v>0.3083073283419587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -2310,19 +2310,19 @@
         <v>22817</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15584</v>
+        <v>14937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32947</v>
+        <v>32988</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2004482020945665</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1369066135641635</v>
+        <v>0.1312188823280706</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2894381326134224</v>
+        <v>0.2898041302214367</v>
       </c>
     </row>
     <row r="7">
@@ -2339,19 +2339,19 @@
         <v>4561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10114</v>
+        <v>9356</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08818900868535733</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0339877078026604</v>
+        <v>0.03386635272584397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1955681364142202</v>
+        <v>0.1809143700697711</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2360,19 +2360,19 @@
         <v>7516</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14238</v>
+        <v>14235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1210067933419982</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05264251854853384</v>
+        <v>0.05239591578949011</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2292285866013897</v>
+        <v>0.2291738735460626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2381,19 +2381,19 @@
         <v>12077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6883</v>
+        <v>6830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19948</v>
+        <v>20186</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1060967218275783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06047144865119953</v>
+        <v>0.06000519907797654</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1752409547842477</v>
+        <v>0.1773354914041182</v>
       </c>
     </row>
     <row r="8">
@@ -2414,19 +2414,19 @@
         <v>29647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21090</v>
+        <v>21317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38601</v>
+        <v>39269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3796976342069112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2701063495027742</v>
+        <v>0.2730177788130143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4943815377739352</v>
+        <v>0.5029331437735538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -2435,19 +2435,19 @@
         <v>10122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5531</v>
+        <v>5307</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16620</v>
+        <v>16080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2777607515567123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1517667457126701</v>
+        <v>0.145623413751029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4560470699219753</v>
+        <v>0.4412234986964128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -2456,19 +2456,19 @@
         <v>39769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29565</v>
+        <v>29661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50905</v>
+        <v>51404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3472600988285763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2581601663680542</v>
+        <v>0.2589926998709924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4444994280581089</v>
+        <v>0.4488545568982686</v>
       </c>
     </row>
     <row r="9">
@@ -2485,19 +2485,19 @@
         <v>40335</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31261</v>
+        <v>31161</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48366</v>
+        <v>49899</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5165806599585356</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4003662997014916</v>
+        <v>0.3990927602502261</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6194442990958992</v>
+        <v>0.6390722420417292</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -2506,19 +2506,19 @@
         <v>20145</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13265</v>
+        <v>13495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26540</v>
+        <v>26536</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5527681324035858</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3640046553727376</v>
+        <v>0.3702982020698651</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.728250745088328</v>
+        <v>0.7281629042417408</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -2527,19 +2527,19 @@
         <v>60479</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49144</v>
+        <v>49627</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70901</v>
+        <v>71597</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5280959465473642</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.429122104530026</v>
+        <v>0.4333363724982063</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6191007758826966</v>
+        <v>0.6251762900107877</v>
       </c>
     </row>
     <row r="10">
@@ -2556,19 +2556,19 @@
         <v>13896</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8041</v>
+        <v>8453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22084</v>
+        <v>22204</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1779728885614696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1029904635614581</v>
+        <v>0.1082669489234932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2828387638029364</v>
+        <v>0.2843686982722146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -2577,19 +2577,19 @@
         <v>12864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7044</v>
+        <v>7788</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19099</v>
+        <v>19335</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3529994055545307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1933011643623777</v>
+        <v>0.2136925804309797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.524074045420482</v>
+        <v>0.5305448192790357</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2598,19 +2598,19 @@
         <v>26760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17974</v>
+        <v>18674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37189</v>
+        <v>37128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2336684198500956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1569435291731672</v>
+        <v>0.1630559788120741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3247266407410971</v>
+        <v>0.3241945776253364</v>
       </c>
     </row>
     <row r="11">
@@ -2627,19 +2627,19 @@
         <v>7424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2734</v>
+        <v>2836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15047</v>
+        <v>15496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09508035349869004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03502016920036112</v>
+        <v>0.03632801459503227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1927095010439484</v>
+        <v>0.1984630775539903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5310</v>
+        <v>5096</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02814671470025582</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.145697582393313</v>
+        <v>0.1398278570194851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -2669,19 +2669,19 @@
         <v>8450</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3758</v>
+        <v>3689</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16953</v>
+        <v>16487</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07378126900563817</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0328144296539457</v>
+        <v>0.03221136242052988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1480296898399823</v>
+        <v>0.1439620084156923</v>
       </c>
     </row>
     <row r="12">
@@ -2702,19 +2702,19 @@
         <v>11984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6682</v>
+        <v>6764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18351</v>
+        <v>17456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4140530251378072</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2308517400505627</v>
+        <v>0.2337134460503192</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6340338043941082</v>
+        <v>0.603121084468327</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -2723,19 +2723,19 @@
         <v>4984</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1132</v>
+        <v>1725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10160</v>
+        <v>10135</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3087165314841784</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0701039229502691</v>
+        <v>0.1068617787691041</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6293720681901237</v>
+        <v>0.627817218196127</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -2744,19 +2744,19 @@
         <v>16968</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10648</v>
+        <v>10615</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24392</v>
+        <v>24329</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3763371208138696</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2361561023301548</v>
+        <v>0.2354299017143896</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5409947633110017</v>
+        <v>0.5396119905654742</v>
       </c>
     </row>
     <row r="13">
@@ -2773,19 +2773,19 @@
         <v>12033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6906</v>
+        <v>5932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18142</v>
+        <v>18190</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4157363745279231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2386116823238373</v>
+        <v>0.204957920788078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6268159085507328</v>
+        <v>0.628484579607579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -2794,19 +2794,19 @@
         <v>9011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4233</v>
+        <v>4339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13201</v>
+        <v>13899</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5581876698722719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2621976338771196</v>
+        <v>0.2687786170639498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8177275437456388</v>
+        <v>0.8609701851698348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -2815,19 +2815,19 @@
         <v>21044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14006</v>
+        <v>13759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28181</v>
+        <v>28304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4667412944723355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3106370190998787</v>
+        <v>0.3051625509404181</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6250329442395024</v>
+        <v>0.6277677395975747</v>
       </c>
     </row>
     <row r="14">
@@ -2844,19 +2844,19 @@
         <v>10061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5082</v>
+        <v>4673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16511</v>
+        <v>16083</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3476305679424587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1756003101934867</v>
+        <v>0.1614475511890333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5704817321563165</v>
+        <v>0.5556912634472929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -2865,19 +2865,19 @@
         <v>6097</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2164</v>
+        <v>1997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11292</v>
+        <v>11038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3777028340551996</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1340558197205547</v>
+        <v>0.1236762834702098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.69946750412495</v>
+        <v>0.6837567518678338</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -2886,19 +2886,19 @@
         <v>16159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9644</v>
+        <v>10015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24504</v>
+        <v>24610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3583979921481822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2138904617983057</v>
+        <v>0.222120471258559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.543476720166483</v>
+        <v>0.5458313090562676</v>
       </c>
     </row>
     <row r="15">
@@ -2915,19 +2915,19 @@
         <v>5090</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1774</v>
+        <v>1893</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10270</v>
+        <v>9895</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.175859108578563</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06130501623638302</v>
+        <v>0.06542084853839293</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3548314306926259</v>
+        <v>0.3418796423339233</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4771</v>
+        <v>5348</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06282218315334673</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2955452731952089</v>
+        <v>0.3313127973575261</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -2957,19 +2957,19 @@
         <v>6104</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2655</v>
+        <v>2383</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11890</v>
+        <v>12132</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1353860520286817</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05889657388088683</v>
+        <v>0.05286094187300868</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2637110337783918</v>
+        <v>0.269068853511345</v>
       </c>
     </row>
     <row r="16">
@@ -2990,19 +2990,19 @@
         <v>58240</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46336</v>
+        <v>46369</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70172</v>
+        <v>70206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.36688626372463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2918962379263519</v>
+        <v>0.2921068402404053</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4420572832739484</v>
+        <v>0.4422695636634817</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3011,19 +3011,19 @@
         <v>39488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29175</v>
+        <v>29817</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50883</v>
+        <v>50515</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3442734124351997</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2543619147124025</v>
+        <v>0.2599548843815487</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4436151296030427</v>
+        <v>0.4404092892824262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -3032,19 +3032,19 @@
         <v>97728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80898</v>
+        <v>82513</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113161</v>
+        <v>114134</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3574008528311148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.295854521411792</v>
+        <v>0.3017584788690366</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4138432599725326</v>
+        <v>0.4173997199322357</v>
       </c>
     </row>
     <row r="17">
@@ -3061,19 +3061,19 @@
         <v>82704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70448</v>
+        <v>69265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94796</v>
+        <v>95007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5210006948179842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4437950323440349</v>
+        <v>0.4363410382984824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5971779187878777</v>
+        <v>0.5985053595015752</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -3082,19 +3082,19 @@
         <v>63714</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52721</v>
+        <v>52655</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74976</v>
+        <v>74489</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5554839423955381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4596383469033323</v>
+        <v>0.4590690543197191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6536680981185089</v>
+        <v>0.6494286915907582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -3103,19 +3103,19 @@
         <v>146418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129094</v>
+        <v>129367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>163349</v>
+        <v>162402</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5354653798782355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4721111151134927</v>
+        <v>0.473111068048274</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5973856267948098</v>
+        <v>0.5939233933416153</v>
       </c>
     </row>
     <row r="18">
@@ -3132,19 +3132,19 @@
         <v>35479</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25125</v>
+        <v>26088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48217</v>
+        <v>47174</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2235065567828794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1582749956293795</v>
+        <v>0.1643437771870492</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3037461635489021</v>
+        <v>0.297180607784838</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -3153,19 +3153,19 @@
         <v>30257</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21598</v>
+        <v>22795</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41461</v>
+        <v>42027</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2637929471409989</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1882971180418143</v>
+        <v>0.1987321086689298</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3614768324967054</v>
+        <v>0.36641100604634</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -3174,19 +3174,19 @@
         <v>65736</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>52629</v>
+        <v>51833</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>82236</v>
+        <v>81807</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2404054856739001</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1924707357662024</v>
+        <v>0.1895583260372734</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3007457988154776</v>
+        <v>0.2991769298414316</v>
       </c>
     </row>
     <row r="19">
@@ -3203,19 +3203,19 @@
         <v>17075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10430</v>
+        <v>10650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26136</v>
+        <v>27433</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1075637328140531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06570265729157747</v>
+        <v>0.06708899872561459</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.164647552190979</v>
+        <v>0.1728147277955006</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3224,19 +3224,19 @@
         <v>9556</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4384</v>
+        <v>4212</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18181</v>
+        <v>16925</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08331401560111606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0382173489264884</v>
+        <v>0.03672466567530134</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1585121361094049</v>
+        <v>0.1475562710364327</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -3245,19 +3245,19 @@
         <v>26631</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17841</v>
+        <v>16941</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37948</v>
+        <v>37652</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09739170590456869</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06524538396510136</v>
+        <v>0.06195453897989595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1387801939673734</v>
+        <v>0.1376963916207935</v>
       </c>
     </row>
     <row r="20">
@@ -3517,19 +3517,19 @@
         <v>15917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10021</v>
+        <v>9806</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23557</v>
+        <v>23818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1064683553569157</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06703155412748794</v>
+        <v>0.06559306933471785</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1575744979075407</v>
+        <v>0.1593220337294389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3538,19 +3538,19 @@
         <v>24697</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17595</v>
+        <v>17902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31737</v>
+        <v>31872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1321795943740124</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09417165775484632</v>
+        <v>0.09581103623593175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1698564464812866</v>
+        <v>0.1705789496445548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -3559,19 +3559,19 @@
         <v>40614</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31872</v>
+        <v>31930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51260</v>
+        <v>51781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1207514665440323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09476185188793047</v>
+        <v>0.09493234135320322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1524049782459575</v>
+        <v>0.1539547067453688</v>
       </c>
     </row>
     <row r="5">
@@ -3588,19 +3588,19 @@
         <v>66204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55667</v>
+        <v>56045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76403</v>
+        <v>76887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4428476199110177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3723625884941628</v>
+        <v>0.3748946264421041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5110729366407513</v>
+        <v>0.5143080447131769</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -3609,19 +3609,19 @@
         <v>77206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67113</v>
+        <v>66774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89003</v>
+        <v>87278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4132108737334926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3591927123882929</v>
+        <v>0.3573798193737029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4763475688519614</v>
+        <v>0.4671146852739364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>233</v>
@@ -3630,19 +3630,19 @@
         <v>143410</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>128998</v>
+        <v>128745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>159185</v>
+        <v>158198</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4263838104230165</v>
+        <v>0.4263838104230164</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3835342377799679</v>
+        <v>0.3827826054779438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4732858718964216</v>
+        <v>0.4703526241075421</v>
       </c>
     </row>
     <row r="6">
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4503</v>
+        <v>3662</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007907177155324232</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03011967485650602</v>
+        <v>0.02449379530942809</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3832</v>
+        <v>3775</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00553800630258719</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0205105858042784</v>
+        <v>0.02020319241143536</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3701,19 +3701,19 @@
         <v>2217</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>654</v>
+        <v>611</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5780</v>
+        <v>5931</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.006591055023348496</v>
+        <v>0.006591055023348498</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001943507334939809</v>
+        <v>0.001816584488803306</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01718360597766613</v>
+        <v>0.01763351058289212</v>
       </c>
     </row>
     <row r="7">
@@ -3730,19 +3730,19 @@
         <v>95144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84568</v>
+        <v>85247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105495</v>
+        <v>104679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6364298346277314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5656868401421706</v>
+        <v>0.5702281358235122</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.705670232716279</v>
+        <v>0.7002141015601543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -3751,19 +3751,19 @@
         <v>127217</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115673</v>
+        <v>117334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136351</v>
+        <v>136506</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6808708505952701</v>
+        <v>0.6808708505952702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6190887974043237</v>
+        <v>0.6279767474204969</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7297570887632422</v>
+        <v>0.7305861742612356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>344</v>
@@ -3772,19 +3772,19 @@
         <v>222360</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>206775</v>
+        <v>209214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235616</v>
+        <v>236753</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6611177141931891</v>
+        <v>0.661117714193189</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.614778689303628</v>
+        <v>0.6220306534474649</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7005280075279186</v>
+        <v>0.7039082542606294</v>
       </c>
     </row>
     <row r="8">
@@ -3805,19 +3805,19 @@
         <v>45377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34472</v>
+        <v>35284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58226</v>
+        <v>59167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1565833436526924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1189551814353646</v>
+        <v>0.1217566808105648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.200920641050388</v>
+        <v>0.2041682293958301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -3826,19 +3826,19 @@
         <v>30327</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22481</v>
+        <v>23388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39359</v>
+        <v>39667</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1238765930261069</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09182974299437169</v>
+        <v>0.09553177633762532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1607693837993957</v>
+        <v>0.1620304939942987</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>100</v>
@@ -3847,19 +3847,19 @@
         <v>75704</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61976</v>
+        <v>62165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>91502</v>
+        <v>89117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1416058419409409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1159286965383661</v>
+        <v>0.1162811651784453</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.171157649244134</v>
+        <v>0.1666958582690704</v>
       </c>
     </row>
     <row r="9">
@@ -3876,19 +3876,19 @@
         <v>115134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>99859</v>
+        <v>100100</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>130731</v>
+        <v>130208</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3972962214446242</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3445844797679363</v>
+        <v>0.3454161972270592</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4511167213632696</v>
+        <v>0.449312603287113</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -3897,19 +3897,19 @@
         <v>84825</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72722</v>
+        <v>72676</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>96859</v>
+        <v>96513</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3464875537261844</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2970476691683209</v>
+        <v>0.2968597120678191</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3956418997662636</v>
+        <v>0.39422951479172</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>280</v>
@@ -3918,19 +3918,19 @@
         <v>199959</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>178289</v>
+        <v>179141</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>217298</v>
+        <v>217840</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3740292538264415</v>
+        <v>0.3740292538264414</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3334942350311903</v>
+        <v>0.335088991514742</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.406462716708972</v>
+        <v>0.407476175313381</v>
       </c>
     </row>
     <row r="10">
@@ -3947,19 +3947,19 @@
         <v>2293</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6877</v>
+        <v>6937</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.007912866456760061</v>
+        <v>0.007912866456760063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001804277391363448</v>
+        <v>0.001773444743606742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02372960522914902</v>
+        <v>0.02393889175212765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4049</v>
+        <v>3756</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004719373177610554</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01653820239799253</v>
+        <v>0.01534340914846036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3989,19 +3989,19 @@
         <v>3448</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7526</v>
+        <v>8592</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006450460374266201</v>
+        <v>0.0064504603742662</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002154769964375215</v>
+        <v>0.002182816019946308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01407803741480683</v>
+        <v>0.01607141620621927</v>
       </c>
     </row>
     <row r="11">
@@ -4018,19 +4018,19 @@
         <v>194244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180127</v>
+        <v>179260</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>208296</v>
+        <v>208570</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6702843006763386</v>
+        <v>0.6702843006763387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6215698522511183</v>
+        <v>0.6185774596200637</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7187739370144095</v>
+        <v>0.7197170044615141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -4039,19 +4039,19 @@
         <v>174602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161330</v>
+        <v>163766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184382</v>
+        <v>185120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7131989664065992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6589888783132561</v>
+        <v>0.6689392184623164</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7531480930752218</v>
+        <v>0.7561638185315043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>526</v>
@@ -4060,19 +4060,19 @@
         <v>368845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>349990</v>
+        <v>350990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>385498</v>
+        <v>386838</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6899363439738396</v>
+        <v>0.6899363439738394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6546666664336053</v>
+        <v>0.6565367648511448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7210850269428779</v>
+        <v>0.7235927669440385</v>
       </c>
     </row>
     <row r="12">
@@ -4093,19 +4093,19 @@
         <v>13986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8465</v>
+        <v>8042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21692</v>
+        <v>22295</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1079868216345091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06535993792626979</v>
+        <v>0.0620895855020437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1674822569783586</v>
+        <v>0.1721400197179648</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4114,19 +4114,19 @@
         <v>7053</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3863</v>
+        <v>3902</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12209</v>
+        <v>11901</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07301045707571727</v>
+        <v>0.07301045707571728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03998651762431779</v>
+        <v>0.04038693617813139</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1263781316099096</v>
+        <v>0.1231844444675395</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -4135,19 +4135,19 @@
         <v>21040</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14143</v>
+        <v>14982</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29740</v>
+        <v>30559</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09304381709251848</v>
+        <v>0.09304381709251849</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06254679674140391</v>
+        <v>0.06625647791158948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1315209894495082</v>
+        <v>0.1351422161505252</v>
       </c>
     </row>
     <row r="13">
@@ -4164,19 +4164,19 @@
         <v>64869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55183</v>
+        <v>54964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75476</v>
+        <v>74977</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5008502452484506</v>
+        <v>0.5008502452484507</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4260711254699537</v>
+        <v>0.4243768913085875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5827525073756656</v>
+        <v>0.5788969543956348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4185,19 +4185,19 @@
         <v>30154</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23780</v>
+        <v>23968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37709</v>
+        <v>38054</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3121274827273786</v>
+        <v>0.3121274827273787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2461478430987757</v>
+        <v>0.2480970660701568</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3903302097105519</v>
+        <v>0.3939062571508458</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -4206,19 +4206,19 @@
         <v>95023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82976</v>
+        <v>82764</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106776</v>
+        <v>108043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4202219371580226</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3669466123326443</v>
+        <v>0.3660120109208921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4721969695312834</v>
+        <v>0.4778024080795452</v>
       </c>
     </row>
     <row r="14">
@@ -4282,19 +4282,19 @@
         <v>76854</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>66963</v>
+        <v>66076</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>86655</v>
+        <v>86066</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5933911304591822</v>
+        <v>0.5933911304591823</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.51702224820861</v>
+        <v>0.5101699151495108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6690603720139066</v>
+        <v>0.6645168256162978</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>116</v>
@@ -4303,19 +4303,19 @@
         <v>71085</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>64373</v>
+        <v>63777</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>77645</v>
+        <v>77499</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.735804949989702</v>
+        <v>0.7358049499897021</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6663357612525501</v>
+        <v>0.6601598746624521</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8037120601618265</v>
+        <v>0.8022049927644638</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>212</v>
@@ -4324,19 +4324,19 @@
         <v>147939</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>136414</v>
+        <v>135051</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>159844</v>
+        <v>159983</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.654234799574927</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6032679519908618</v>
+        <v>0.5972418465301145</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7068844200820038</v>
+        <v>0.7074963967300191</v>
       </c>
     </row>
     <row r="16">
@@ -4357,19 +4357,19 @@
         <v>75280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59872</v>
+        <v>61379</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90907</v>
+        <v>90487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.132346493091504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1052584166364681</v>
+        <v>0.1079088439635773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1598206920962195</v>
+        <v>0.159081446143541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -4378,19 +4378,19 @@
         <v>62077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1175110535443716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -4399,19 +4399,19 @@
         <v>137357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119725</v>
+        <v>119326</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157646</v>
+        <v>156607</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1252028859893909</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1091309101297168</v>
+        <v>0.1087679328110442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1436968114865579</v>
+        <v>0.1427493990300256</v>
       </c>
     </row>
     <row r="17">
@@ -4428,19 +4428,19 @@
         <v>246207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>225208</v>
+        <v>225251</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>267242</v>
+        <v>268119</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4328474624755365</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3959298016411192</v>
+        <v>0.3960058148859293</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4698293236452653</v>
+        <v>0.4713707632269553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>332</v>
@@ -4449,19 +4449,19 @@
         <v>192185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3638033980577172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>642</v>
@@ -4470,19 +4470,19 @@
         <v>438392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411928</v>
+        <v>410083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>466383</v>
+        <v>462050</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3996011493233775</v>
+        <v>0.3996011493233776</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3754794659409453</v>
+        <v>0.3737972950332186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4251160191113434</v>
+        <v>0.4211659064285182</v>
       </c>
     </row>
     <row r="18">
@@ -4499,19 +4499,19 @@
         <v>3475</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1144</v>
+        <v>1231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8112</v>
+        <v>8213</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00610961303472439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002010371917263926</v>
+        <v>0.002163883729879653</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01426158101064275</v>
+        <v>0.01443966893737805</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -4520,19 +4520,19 @@
         <v>2190</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004145852519126754</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -4541,19 +4541,19 @@
         <v>5665</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2339</v>
+        <v>2790</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10799</v>
+        <v>10867</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.005164016948979558</v>
+        <v>0.005164016948979559</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002132407419992276</v>
+        <v>0.002543149004797316</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.009843107789210836</v>
+        <v>0.009905895868396046</v>
       </c>
     </row>
     <row r="19">
@@ -4570,19 +4570,19 @@
         <v>366242</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>344475</v>
+        <v>346212</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>385109</v>
+        <v>386663</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6438779677500078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6056088170134564</v>
+        <v>0.6086639395895989</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6770476458524428</v>
+        <v>0.6797784953205906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>626</v>
@@ -4591,19 +4591,19 @@
         <v>372902</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1082</v>
@@ -4612,19 +4612,19 @@
         <v>739145</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>713962</v>
+        <v>715132</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>763865</v>
+        <v>764856</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6737424715680991</v>
+        <v>0.6737424715680992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6507879459700152</v>
+        <v>0.6518547211188799</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6962756089377667</v>
+        <v>0.6971791150064759</v>
       </c>
     </row>
     <row r="20">
